--- a/diagrama_de_trabajo.xlsx
+++ b/diagrama_de_trabajo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>INICIO</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>RP - LM TT</t>
+  </si>
+  <si>
+    <t>Tomas Toledo = TT</t>
+  </si>
+  <si>
+    <t>Leonardo Moreno = LM</t>
+  </si>
+  <si>
+    <t>Rainer Palm = RP</t>
+  </si>
+  <si>
+    <t>Aramis Castellano = AC</t>
+  </si>
+  <si>
+    <t>Nombres</t>
   </si>
 </sst>
 </file>
@@ -375,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -461,11 +476,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -476,6 +510,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="L2:L6" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="L2:L6"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Nombres"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K28"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,9 +799,10 @@
     <col min="8" max="8" width="30.5703125" customWidth="1"/>
     <col min="9" max="9" width="31.85546875" customWidth="1"/>
     <col min="10" max="10" width="36.85546875" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="24"/>
       <c r="D1" s="25" t="s">
         <v>25</v>
@@ -779,7 +824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
@@ -790,8 +835,11 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
@@ -812,8 +860,11 @@
       <c r="J3" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
@@ -834,8 +885,11 @@
       <c r="J4" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
@@ -856,8 +910,11 @@
       <c r="J5" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
@@ -878,8 +935,11 @@
       <c r="J6" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -901,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
@@ -923,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
@@ -944,8 +1004,9 @@
       <c r="J9" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
@@ -967,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
@@ -979,7 +1040,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="30" t="s">
         <v>13</v>
@@ -1002,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="31" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1338,5 +1399,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>